--- a/medicine/Mort/Cimetière_des_Portes_Saintes/Cimetière_des_Portes_Saintes.xlsx
+++ b/medicine/Mort/Cimetière_des_Portes_Saintes/Cimetière_des_Portes_Saintes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Portes_Saintes</t>
+          <t>Cimetière_des_Portes_Saintes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière des Portes Saintes (Cimitero delle Porte Sante en italien) est un cimetière important de Florence situé dans le bastion fortifié de la basilique San Miniato al Monte. De nombreuses personnalités y sont enterrées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Portes_Saintes</t>
+          <t>Cimetière_des_Portes_Saintes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée d'un lieu de sépulture près de San Miniato émergea en 1837. Le cimetière fut inauguré onze ans plus tard, en 1848. 
 Le projet, initialement confié à l'architecte Niccolò Matas (auteur de la façade de la basilique Santa Croce de Florence), a été agrandi en 1864 par Mariano Falcini en utilisant l'espace de la forteresse du XVIe siècle autour de la basilique. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Portes_Saintes</t>
+          <t>Cimetière_des_Portes_Saintes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Tombeaux de personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus des nombreux vestiges architecturaux de style néo-gothique, le cimetière abrite les tombes de nombreuses personnes célèbres, dont (par ordre alphabétique) :
 Giuseppe Abbati
@@ -602,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Portes_Saintes</t>
+          <t>Cimetière_des_Portes_Saintes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -620,7 +636,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			L'entrée.
